--- a/docs/解析データ.xlsx
+++ b/docs/解析データ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T122115\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T122115\Desktop\Impressionism_Zemi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39574923-EC59-4C17-8F9B-9A08B703680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64688803-F1F9-43D5-B43D-993F57A86ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{826F12B3-240C-4AA8-BF3E-633BBAF912BF}"/>
   </bookViews>
@@ -23913,8 +23913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A40ADD-0261-4E7E-9BCD-179ADEC62C73}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23933,7 +23933,7 @@
         <v>310</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>260</v>
